--- a/data/trans_dic/P21D_5_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007512596319764869</v>
+        <v>0.007512596319764871</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.004332587982008989</v>
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.001467673164845655</v>
+        <v>0.001430432178027809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0008289410066280082</v>
+        <v>0.0008307064109436529</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02527204382099591</v>
+        <v>0.02209611119658101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01460361535155984</v>
+        <v>0.01121653392836595</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.002511207845861575</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.005117659644722664</v>
+        <v>0.005117659644722663</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.003938329417677776</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001282825308893198</v>
+        <v>0.001365552180931736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001395686450143719</v>
+        <v>0.001335578105365858</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01340889554588714</v>
+        <v>0.01289996903544547</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009421316585840259</v>
+        <v>0.008909814630839098</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.004422225180371659</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.003103198127781872</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0005612820954560811</v>
+        <v>0.0005529226947157916</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.006843263325229004</v>
+        <v>0.00554448516492818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005223076659651475</v>
+        <v>0.005589991309701437</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0006354192123802474</v>
+        <v>0.0006606422601730066</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002144558762913542</v>
+        <v>0.002141505755773511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001657900425566305</v>
+        <v>0.001779135299291871</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.005806013623566291</v>
+        <v>0.005584733424960757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.007181407613395985</v>
+        <v>0.007302421371737056</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005146878504905944</v>
+        <v>0.005190900613042951</v>
       </c>
     </row>
     <row r="19">
@@ -963,10 +963,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
@@ -978,10 +978,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>6800</v>
+        <v>5946</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6814</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="8">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1222</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6428</v>
+        <v>6184</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8248</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="12">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3751</v>
+        <v>3039</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5464</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3604</v>
+        <v>3599</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5356</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8998</v>
+        <v>8655</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12070</v>
+        <v>12273</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16627</v>
+        <v>16769</v>
       </c>
     </row>
     <row r="24">
